--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -267,20 +267,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
@@ -312,7 +304,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -334,6 +348,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -341,7 +371,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -364,51 +401,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -423,10 +415,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -445,187 +438,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,18 +747,22 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -773,8 +770,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -794,10 +791,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thick">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -812,32 +826,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -857,153 +850,156 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="48">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1013,19 +1009,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
@@ -1040,7 +1033,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="9" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="10" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
@@ -1049,10 +1042,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
@@ -1065,7 +1058,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="48">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
@@ -1075,45 +1068,46 @@
     <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
     <cellStyle name="差" xfId="7" builtinId="27"/>
     <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
     <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="注释" xfId="12" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="13" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="14" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="15" builtinId="11"/>
-    <cellStyle name="标题" xfId="16" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="17" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="18" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="19" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="20" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="21" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="22" builtinId="44"/>
-    <cellStyle name="输出" xfId="23" builtinId="21"/>
-    <cellStyle name="计算" xfId="24" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="25" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="26" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="27" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="28" builtinId="24"/>
-    <cellStyle name="汇总" xfId="29" builtinId="25"/>
-    <cellStyle name="好" xfId="30" builtinId="26"/>
-    <cellStyle name="适中" xfId="31" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="32" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="33" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="34" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="35" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="36" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="37" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="38" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="39" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="40" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="41" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="42" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="46" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="47" builtinId="52"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -1592,7 +1586,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1608,593 +1602,593 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="19" t="s">
+      <c r="H2" s="10"/>
+      <c r="I2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="10" t="s">
+      <c r="J2" s="9"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10">
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9">
         <v>400</v>
       </c>
-      <c r="P2" s="10"/>
+      <c r="P2" s="9"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="10" t="s">
+      <c r="J3" s="9"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10">
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9">
         <v>400</v>
       </c>
-      <c r="P3" s="10"/>
+      <c r="P3" s="9"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10" t="s">
+      <c r="E4" s="9"/>
+      <c r="F4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="10" t="s">
+      <c r="J4" s="9"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10">
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9">
         <v>400</v>
       </c>
-      <c r="P4" s="10"/>
+      <c r="P4" s="9"/>
     </row>
     <row r="5" ht="28.5" spans="1:16">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10" t="s">
+      <c r="E5" s="9"/>
+      <c r="F5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="10" t="s">
+      <c r="J5" s="9"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10">
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9">
         <v>200</v>
       </c>
-      <c r="P5" s="10"/>
+      <c r="P5" s="9"/>
     </row>
     <row r="6" ht="28.5" spans="1:16">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10" t="s">
+      <c r="E6" s="9"/>
+      <c r="F6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="10" t="s">
+      <c r="J6" s="9"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10">
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9">
         <v>400</v>
       </c>
-      <c r="P6" s="10"/>
+      <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10" t="s">
+      <c r="E7" s="9"/>
+      <c r="F7" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10" t="s">
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="10" t="s">
+      <c r="J7" s="9"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10">
+      <c r="N7" s="9"/>
+      <c r="O7" s="9">
         <v>401</v>
       </c>
-      <c r="P7" s="10"/>
+      <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="19" t="s">
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="10" t="s">
+      <c r="J8" s="9"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="M8" s="19" t="s">
+      <c r="M8" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10">
+      <c r="N8" s="9"/>
+      <c r="O8" s="9">
         <v>200</v>
       </c>
-      <c r="P8" s="10" t="s">
+      <c r="P8" s="9" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="9" ht="71.25" spans="1:16">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10" t="s">
+      <c r="E9" s="9"/>
+      <c r="F9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="10" t="s">
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10">
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9">
         <v>200</v>
       </c>
-      <c r="P9" s="10"/>
+      <c r="P9" s="9"/>
     </row>
     <row r="10" ht="28.5" spans="1:16">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="10"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="10" t="s">
+      <c r="J10" s="9"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="19" t="s">
+      <c r="M10" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10">
+      <c r="N10" s="9"/>
+      <c r="O10" s="9">
         <v>201</v>
       </c>
-      <c r="P10" s="10"/>
+      <c r="P10" s="9"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="10" t="s">
+      <c r="J11" s="9"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="19" t="s">
+      <c r="M11" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10">
+      <c r="N11" s="9"/>
+      <c r="O11" s="9">
         <v>201</v>
       </c>
-      <c r="P11" s="10"/>
+      <c r="P11" s="9"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="10" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="10" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="10" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14" t="s">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="14"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="13"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="14"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="13"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="14"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2233,9 +2227,9 @@
         <v>73</v>
       </c>
       <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
@@ -2243,38 +2237,38 @@
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="5"/>
+      <c r="A8" s="4"/>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="5"/>
+      <c r="A9" s="4"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="5"/>
+      <c r="A10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="美多商城接口测试" sheetId="2" r:id="rId1"/>
@@ -266,10 +266,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -303,6 +303,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="DengXian"/>
@@ -317,14 +356,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="DengXian"/>
@@ -332,23 +363,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -357,6 +373,36 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian Light"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -371,57 +417,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian Light"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -438,13 +438,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,19 +516,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,19 +564,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,120 +619,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,30 +740,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -787,6 +763,63 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -816,39 +849,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -857,10 +857,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -869,16 +869,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -887,115 +887,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1585,8 +1585,8 @@
   <sheetPr/>
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -86,72 +86,75 @@
     <t>无效数据。期待为字典类型</t>
   </si>
   <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>login_2</t>
+  </si>
+  <si>
+    <t>登录名为空</t>
+  </si>
+  <si>
+    <t>{"username":"","password":"12345678"}</t>
+  </si>
+  <si>
+    <t>username': ['该字段不能为空。']</t>
+  </si>
+  <si>
+    <t>login_3</t>
+  </si>
+  <si>
+    <t>登录名或密码为空</t>
+  </si>
+  <si>
+    <t>{"username":"","password":""}</t>
+  </si>
+  <si>
+    <t>password': ['该字段不能为空。']</t>
+  </si>
+  <si>
+    <t>login_4</t>
+  </si>
+  <si>
+    <t>登录成功</t>
+  </si>
+  <si>
+    <t>{"username":"python","password":"12345678"}</t>
+  </si>
+  <si>
+    <t>user_id': 1, 'username': 'python'</t>
+  </si>
+  <si>
+    <t>login_5</t>
+  </si>
+  <si>
+    <t>登录用户名或密码错误</t>
+  </si>
+  <si>
+    <t>{"username":"python","password":"test123"}</t>
+  </si>
+  <si>
+    <t>无法使用提供的认证信息登录</t>
+  </si>
+  <si>
+    <t>Info_1</t>
+  </si>
+  <si>
+    <t>个人信息</t>
+  </si>
+  <si>
+    <t>/user/</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>身份认证信息未提供</t>
+  </si>
+  <si>
     <t>n</t>
   </si>
   <si>
-    <t>login_2</t>
-  </si>
-  <si>
-    <t>登录名为空</t>
-  </si>
-  <si>
-    <t>{"username":"","password":"12345678"}</t>
-  </si>
-  <si>
-    <t>username': ['该字段不能为空。']</t>
-  </si>
-  <si>
-    <t>login_3</t>
-  </si>
-  <si>
-    <t>登录名或密码为空</t>
-  </si>
-  <si>
-    <t>{"username":"","password":""}</t>
-  </si>
-  <si>
-    <t>password': ['该字段不能为空。']</t>
-  </si>
-  <si>
-    <t>login_4</t>
-  </si>
-  <si>
-    <t>登录成功</t>
-  </si>
-  <si>
-    <t>{"username":"python","password":"12345678"}</t>
-  </si>
-  <si>
-    <t>user_id': 1, 'username': 'python'</t>
-  </si>
-  <si>
-    <t>login_5</t>
-  </si>
-  <si>
-    <t>登录用户名或密码错误</t>
-  </si>
-  <si>
-    <t>{"username":"python","password":"test123"}</t>
-  </si>
-  <si>
-    <t>无法使用提供的认证信息登录</t>
-  </si>
-  <si>
-    <t>Info_1</t>
-  </si>
-  <si>
-    <t>个人信息</t>
-  </si>
-  <si>
-    <t>/user/</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>身份认证信息未提供</t>
-  </si>
-  <si>
     <t>Info_2</t>
   </si>
   <si>
@@ -159,9 +162,6 @@
   </si>
   <si>
     <t>id': 1, 'username': 'python', 'mobile': '17701397029', 'email': '952673638@qq.com'</t>
-  </si>
-  <si>
-    <t>y</t>
   </si>
   <si>
     <t>{"Authorization": "JWT ${token}$"}</t>
@@ -1586,7 +1586,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="L2" sqref="L2:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1864,7 +1864,7 @@
       <c r="J7" s="9"/>
       <c r="K7" s="16"/>
       <c r="L7" s="9" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="N7" s="9"/>
       <c r="O7" s="9">
@@ -1874,13 +1874,13 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>42</v>
@@ -1894,12 +1894,12 @@
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="16"/>
       <c r="L8" s="9" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="M8" s="18" t="s">
         <v>49</v>
@@ -1939,7 +1939,7 @@
       <c r="J9" s="9"/>
       <c r="K9" s="16"/>
       <c r="L9" s="9" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
@@ -1979,7 +1979,7 @@
       <c r="J10" s="9"/>
       <c r="K10" s="16"/>
       <c r="L10" s="9" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M10" s="18" t="s">
         <v>49</v>
@@ -2021,7 +2021,7 @@
       <c r="J11" s="9"/>
       <c r="K11" s="16"/>
       <c r="L11" s="9" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M11" s="18" t="s">
         <v>49</v>

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -86,82 +86,82 @@
     <t>无效数据。期待为字典类型</t>
   </si>
   <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>login_2</t>
+  </si>
+  <si>
+    <t>登录名为空</t>
+  </si>
+  <si>
+    <t>{"username":"","password":"12345678"}</t>
+  </si>
+  <si>
+    <t>username': ['该字段不能为空。']</t>
+  </si>
+  <si>
+    <t>login_3</t>
+  </si>
+  <si>
+    <t>登录名或密码为空</t>
+  </si>
+  <si>
+    <t>{"username":"","password":""}</t>
+  </si>
+  <si>
+    <t>password': ['该字段不能为空。']</t>
+  </si>
+  <si>
+    <t>login_4</t>
+  </si>
+  <si>
+    <t>登录成功</t>
+  </si>
+  <si>
+    <t>{"username":"python","password":"12345678"}</t>
+  </si>
+  <si>
+    <t>user_id': 1, 'username': 'python'</t>
+  </si>
+  <si>
+    <t>login_5</t>
+  </si>
+  <si>
+    <t>登录用户名或密码错误</t>
+  </si>
+  <si>
+    <t>{"username":"python","password":"test123"}</t>
+  </si>
+  <si>
+    <t>无法使用提供的认证信息登录</t>
+  </si>
+  <si>
+    <t>Info_1</t>
+  </si>
+  <si>
+    <t>个人信息</t>
+  </si>
+  <si>
+    <t>/user/</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>身份认证信息未提供</t>
+  </si>
+  <si>
+    <t>Info_2</t>
+  </si>
+  <si>
+    <t>获取个人信息正确</t>
+  </si>
+  <si>
+    <t>id': 1, 'username': 'python', 'mobile': '17701397029', 'email': '952673638@qq.com'</t>
+  </si>
+  <si>
     <t>y</t>
-  </si>
-  <si>
-    <t>login_2</t>
-  </si>
-  <si>
-    <t>登录名为空</t>
-  </si>
-  <si>
-    <t>{"username":"","password":"12345678"}</t>
-  </si>
-  <si>
-    <t>username': ['该字段不能为空。']</t>
-  </si>
-  <si>
-    <t>login_3</t>
-  </si>
-  <si>
-    <t>登录名或密码为空</t>
-  </si>
-  <si>
-    <t>{"username":"","password":""}</t>
-  </si>
-  <si>
-    <t>password': ['该字段不能为空。']</t>
-  </si>
-  <si>
-    <t>login_4</t>
-  </si>
-  <si>
-    <t>登录成功</t>
-  </si>
-  <si>
-    <t>{"username":"python","password":"12345678"}</t>
-  </si>
-  <si>
-    <t>user_id': 1, 'username': 'python'</t>
-  </si>
-  <si>
-    <t>login_5</t>
-  </si>
-  <si>
-    <t>登录用户名或密码错误</t>
-  </si>
-  <si>
-    <t>{"username":"python","password":"test123"}</t>
-  </si>
-  <si>
-    <t>无法使用提供的认证信息登录</t>
-  </si>
-  <si>
-    <t>Info_1</t>
-  </si>
-  <si>
-    <t>个人信息</t>
-  </si>
-  <si>
-    <t>/user/</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>身份认证信息未提供</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>Info_2</t>
-  </si>
-  <si>
-    <t>获取个人信息正确</t>
-  </si>
-  <si>
-    <t>id': 1, 'username': 'python', 'mobile': '17701397029', 'email': '952673638@qq.com'</t>
   </si>
   <si>
     <t>{"Authorization": "JWT ${token}$"}</t>
@@ -1586,7 +1586,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L6"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1864,7 +1864,7 @@
       <c r="J7" s="9"/>
       <c r="K7" s="16"/>
       <c r="L7" s="9" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="N7" s="9"/>
       <c r="O7" s="9">
@@ -1874,13 +1874,13 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>42</v>
@@ -1894,12 +1894,12 @@
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="16"/>
       <c r="L8" s="9" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="M8" s="18" t="s">
         <v>49</v>
@@ -1939,7 +1939,7 @@
       <c r="J9" s="9"/>
       <c r="K9" s="16"/>
       <c r="L9" s="9" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
@@ -1979,7 +1979,7 @@
       <c r="J10" s="9"/>
       <c r="K10" s="16"/>
       <c r="L10" s="9" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M10" s="18" t="s">
         <v>49</v>
@@ -2021,7 +2021,7 @@
       <c r="J11" s="9"/>
       <c r="K11" s="16"/>
       <c r="L11" s="9" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M11" s="18" t="s">
         <v>49</v>

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="美多商城接口测试" sheetId="2" r:id="rId1"/>
@@ -86,72 +86,75 @@
     <t>无效数据。期待为字典类型</t>
   </si>
   <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>login_2</t>
+  </si>
+  <si>
+    <t>登录名为空</t>
+  </si>
+  <si>
+    <t>{"username":"","password":"12345678"}</t>
+  </si>
+  <si>
+    <t>username': ['该字段不能为空。']</t>
+  </si>
+  <si>
+    <t>login_3</t>
+  </si>
+  <si>
+    <t>登录名或密码为空</t>
+  </si>
+  <si>
+    <t>{"username":"","password":""}</t>
+  </si>
+  <si>
+    <t>password': ['该字段不能为空。']</t>
+  </si>
+  <si>
+    <t>login_4</t>
+  </si>
+  <si>
+    <t>登录成功</t>
+  </si>
+  <si>
+    <t>{"username":"python","password":"12345678"}</t>
+  </si>
+  <si>
+    <t>user_id': 1, 'username': 'python'</t>
+  </si>
+  <si>
+    <t>login_5</t>
+  </si>
+  <si>
+    <t>登录用户名或密码错误</t>
+  </si>
+  <si>
+    <t>{"username":"python","password":"test123"}</t>
+  </si>
+  <si>
+    <t>无法使用提供的认证信息登录</t>
+  </si>
+  <si>
+    <t>Info_1</t>
+  </si>
+  <si>
+    <t>个人信息</t>
+  </si>
+  <si>
+    <t>/user/</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>身份认证信息未提供</t>
+  </si>
+  <si>
     <t>n</t>
   </si>
   <si>
-    <t>login_2</t>
-  </si>
-  <si>
-    <t>登录名为空</t>
-  </si>
-  <si>
-    <t>{"username":"","password":"12345678"}</t>
-  </si>
-  <si>
-    <t>username': ['该字段不能为空。']</t>
-  </si>
-  <si>
-    <t>login_3</t>
-  </si>
-  <si>
-    <t>登录名或密码为空</t>
-  </si>
-  <si>
-    <t>{"username":"","password":""}</t>
-  </si>
-  <si>
-    <t>password': ['该字段不能为空。']</t>
-  </si>
-  <si>
-    <t>login_4</t>
-  </si>
-  <si>
-    <t>登录成功</t>
-  </si>
-  <si>
-    <t>{"username":"python","password":"12345678"}</t>
-  </si>
-  <si>
-    <t>user_id': 1, 'username': 'python'</t>
-  </si>
-  <si>
-    <t>login_5</t>
-  </si>
-  <si>
-    <t>登录用户名或密码错误</t>
-  </si>
-  <si>
-    <t>{"username":"python","password":"test123"}</t>
-  </si>
-  <si>
-    <t>无法使用提供的认证信息登录</t>
-  </si>
-  <si>
-    <t>Info_1</t>
-  </si>
-  <si>
-    <t>个人信息</t>
-  </si>
-  <si>
-    <t>/user/</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>身份认证信息未提供</t>
-  </si>
-  <si>
     <t>Info_2</t>
   </si>
   <si>
@@ -159,9 +162,6 @@
   </si>
   <si>
     <t>id': 1, 'username': 'python', 'mobile': '17701397029', 'email': '952673638@qq.com'</t>
-  </si>
-  <si>
-    <t>y</t>
   </si>
   <si>
     <t>{"Authorization": "JWT ${token}$"}</t>
@@ -266,10 +266,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -303,52 +303,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="DengXian"/>
@@ -363,8 +325,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -378,11 +341,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -402,7 +409,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -410,14 +417,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -438,13 +438,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,13 +552,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,6 +564,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -486,7 +582,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,127 +612,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,6 +740,21 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -767,17 +782,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -794,17 +803,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -824,28 +835,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -857,10 +857,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -869,16 +869,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -890,112 +890,112 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1585,8 +1585,8 @@
   <sheetPr/>
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1864,7 +1864,7 @@
       <c r="J7" s="9"/>
       <c r="K7" s="16"/>
       <c r="L7" s="9" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="N7" s="9"/>
       <c r="O7" s="9">
@@ -1874,13 +1874,13 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>42</v>
@@ -1894,12 +1894,12 @@
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="16"/>
       <c r="L8" s="9" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="M8" s="18" t="s">
         <v>49</v>
@@ -1939,7 +1939,7 @@
       <c r="J9" s="9"/>
       <c r="K9" s="16"/>
       <c r="L9" s="9" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
@@ -1979,7 +1979,7 @@
       <c r="J10" s="9"/>
       <c r="K10" s="16"/>
       <c r="L10" s="9" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M10" s="18" t="s">
         <v>49</v>
@@ -2021,7 +2021,7 @@
       <c r="J11" s="9"/>
       <c r="K11" s="16"/>
       <c r="L11" s="9" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M11" s="18" t="s">
         <v>49</v>

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -86,82 +86,82 @@
     <t>无效数据。期待为字典类型</t>
   </si>
   <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>login_2</t>
+  </si>
+  <si>
+    <t>登录名为空</t>
+  </si>
+  <si>
+    <t>{"username":"","password":"12345678"}</t>
+  </si>
+  <si>
+    <t>username': ['该字段不能为空。']</t>
+  </si>
+  <si>
+    <t>login_3</t>
+  </si>
+  <si>
+    <t>登录名或密码为空</t>
+  </si>
+  <si>
+    <t>{"username":"","password":""}</t>
+  </si>
+  <si>
+    <t>password': ['该字段不能为空。']</t>
+  </si>
+  <si>
+    <t>login_4</t>
+  </si>
+  <si>
+    <t>登录成功</t>
+  </si>
+  <si>
+    <t>{"username":"python","password":"12345678"}</t>
+  </si>
+  <si>
+    <t>user_id': 1, 'username': 'python'</t>
+  </si>
+  <si>
+    <t>login_5</t>
+  </si>
+  <si>
+    <t>登录用户名或密码错误</t>
+  </si>
+  <si>
+    <t>{"username":"python","password":"test123"}</t>
+  </si>
+  <si>
+    <t>无法使用提供的认证信息登录</t>
+  </si>
+  <si>
+    <t>Info_1</t>
+  </si>
+  <si>
+    <t>个人信息</t>
+  </si>
+  <si>
+    <t>/user/</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>身份认证信息未提供</t>
+  </si>
+  <si>
+    <t>Info_2</t>
+  </si>
+  <si>
+    <t>获取个人信息正确</t>
+  </si>
+  <si>
+    <t>id': 1, 'username': 'python', 'mobile': '17701397029', 'email': '952673638@qq.com'</t>
+  </si>
+  <si>
     <t>y</t>
-  </si>
-  <si>
-    <t>login_2</t>
-  </si>
-  <si>
-    <t>登录名为空</t>
-  </si>
-  <si>
-    <t>{"username":"","password":"12345678"}</t>
-  </si>
-  <si>
-    <t>username': ['该字段不能为空。']</t>
-  </si>
-  <si>
-    <t>login_3</t>
-  </si>
-  <si>
-    <t>登录名或密码为空</t>
-  </si>
-  <si>
-    <t>{"username":"","password":""}</t>
-  </si>
-  <si>
-    <t>password': ['该字段不能为空。']</t>
-  </si>
-  <si>
-    <t>login_4</t>
-  </si>
-  <si>
-    <t>登录成功</t>
-  </si>
-  <si>
-    <t>{"username":"python","password":"12345678"}</t>
-  </si>
-  <si>
-    <t>user_id': 1, 'username': 'python'</t>
-  </si>
-  <si>
-    <t>login_5</t>
-  </si>
-  <si>
-    <t>登录用户名或密码错误</t>
-  </si>
-  <si>
-    <t>{"username":"python","password":"test123"}</t>
-  </si>
-  <si>
-    <t>无法使用提供的认证信息登录</t>
-  </si>
-  <si>
-    <t>Info_1</t>
-  </si>
-  <si>
-    <t>个人信息</t>
-  </si>
-  <si>
-    <t>/user/</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>身份认证信息未提供</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>Info_2</t>
-  </si>
-  <si>
-    <t>获取个人信息正确</t>
-  </si>
-  <si>
-    <t>id': 1, 'username': 'python', 'mobile': '17701397029', 'email': '952673638@qq.com'</t>
   </si>
   <si>
     <t>{"Authorization": "JWT ${token}$"}</t>
@@ -266,10 +266,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -310,24 +310,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -342,8 +326,36 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -357,6 +369,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian Light"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
@@ -364,15 +391,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -386,30 +407,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian Light"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -417,7 +417,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -438,19 +438,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,163 +612,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,30 +740,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -785,17 +761,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thick">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -811,10 +778,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="thick">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -835,6 +800,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -849,6 +834,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -857,10 +857,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -869,16 +869,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -887,115 +887,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1586,7 +1586,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L6"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1864,7 +1864,7 @@
       <c r="J7" s="9"/>
       <c r="K7" s="16"/>
       <c r="L7" s="9" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="N7" s="9"/>
       <c r="O7" s="9">
@@ -1874,13 +1874,13 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>42</v>
@@ -1894,12 +1894,12 @@
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="16"/>
       <c r="L8" s="9" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="M8" s="18" t="s">
         <v>49</v>
@@ -1939,7 +1939,7 @@
       <c r="J9" s="9"/>
       <c r="K9" s="16"/>
       <c r="L9" s="9" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
@@ -1979,7 +1979,7 @@
       <c r="J10" s="9"/>
       <c r="K10" s="16"/>
       <c r="L10" s="9" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M10" s="18" t="s">
         <v>49</v>
@@ -2021,7 +2021,7 @@
       <c r="J11" s="9"/>
       <c r="K11" s="16"/>
       <c r="L11" s="9" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M11" s="18" t="s">
         <v>49</v>

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="79">
   <si>
     <t>用例ID</t>
   </si>
@@ -86,7 +86,7 @@
     <t>无效数据。期待为字典类型</t>
   </si>
   <si>
-    <t>n</t>
+    <t>y</t>
   </si>
   <si>
     <t>login_2</t>
@@ -159,9 +159,6 @@
   </si>
   <si>
     <t>id': 1, 'username': 'python', 'mobile': '17701397029', 'email': '952673638@qq.com'</t>
-  </si>
-  <si>
-    <t>y</t>
   </si>
   <si>
     <t>{"Authorization": "JWT ${token}$"}</t>
@@ -303,28 +300,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -333,8 +308,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -348,7 +346,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -369,9 +367,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -384,32 +404,9 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -417,7 +414,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -438,187 +435,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,6 +737,45 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -754,15 +790,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -785,30 +812,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -820,17 +823,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -857,28 +854,28 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -887,115 +884,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1586,7 +1583,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="L2" sqref="L2:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1899,31 +1896,31 @@
       <c r="J8" s="9"/>
       <c r="K8" s="16"/>
       <c r="L8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="18" t="s">
         <v>48</v>
-      </c>
-      <c r="M8" s="18" t="s">
-        <v>49</v>
       </c>
       <c r="N8" s="9"/>
       <c r="O8" s="9">
         <v>200</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" ht="71.25" spans="1:16">
       <c r="A9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>54</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
@@ -1933,7 +1930,7 @@
         <v>21</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1950,31 +1947,31 @@
     </row>
     <row r="10" ht="28.5" spans="1:16">
       <c r="A10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="D10" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>59</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>32</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>21</v>
       </c>
       <c r="H10" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>62</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="16"/>
@@ -1982,7 +1979,7 @@
         <v>23</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N10" s="9"/>
       <c r="O10" s="9">
@@ -1992,31 +1989,31 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>21</v>
       </c>
       <c r="H11" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>68</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="16"/>
@@ -2024,7 +2021,7 @@
         <v>23</v>
       </c>
       <c r="M11" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N11" s="9"/>
       <c r="O11" s="9">
@@ -2073,7 +2070,7 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -2093,7 +2090,7 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -2113,7 +2110,7 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
@@ -2133,7 +2130,7 @@
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -2224,7 +2221,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="2"/>
@@ -2233,32 +2230,32 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:1">

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="80">
   <si>
     <t>用例ID</t>
   </si>
@@ -86,79 +86,82 @@
     <t>无效数据。期待为字典类型</t>
   </si>
   <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>login_2</t>
+  </si>
+  <si>
+    <t>登录名为空</t>
+  </si>
+  <si>
+    <t>{"username":"","password":"12345678"}</t>
+  </si>
+  <si>
+    <t>username': ['该字段不能为空。']</t>
+  </si>
+  <si>
+    <t>login_3</t>
+  </si>
+  <si>
+    <t>登录名或密码为空</t>
+  </si>
+  <si>
+    <t>{"username":"","password":""}</t>
+  </si>
+  <si>
+    <t>password': ['该字段不能为空。']</t>
+  </si>
+  <si>
+    <t>login_4</t>
+  </si>
+  <si>
+    <t>登录成功</t>
+  </si>
+  <si>
+    <t>{"username":"python","password":"12345678"}</t>
+  </si>
+  <si>
+    <t>user_id': 1, 'username': 'python'</t>
+  </si>
+  <si>
+    <t>login_5</t>
+  </si>
+  <si>
+    <t>登录用户名或密码错误</t>
+  </si>
+  <si>
+    <t>{"username":"python","password":"test123"}</t>
+  </si>
+  <si>
+    <t>无法使用提供的认证信息登录</t>
+  </si>
+  <si>
+    <t>Info_1</t>
+  </si>
+  <si>
+    <t>个人信息</t>
+  </si>
+  <si>
+    <t>/user/</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>身份认证信息未提供</t>
+  </si>
+  <si>
+    <t>Info_2</t>
+  </si>
+  <si>
+    <t>获取个人信息正确</t>
+  </si>
+  <si>
+    <t>id': 1, 'username': 'python', 'mobile': '17701397029', 'email': '952673638@qq.com'</t>
+  </si>
+  <si>
     <t>y</t>
-  </si>
-  <si>
-    <t>login_2</t>
-  </si>
-  <si>
-    <t>登录名为空</t>
-  </si>
-  <si>
-    <t>{"username":"","password":"12345678"}</t>
-  </si>
-  <si>
-    <t>username': ['该字段不能为空。']</t>
-  </si>
-  <si>
-    <t>login_3</t>
-  </si>
-  <si>
-    <t>登录名或密码为空</t>
-  </si>
-  <si>
-    <t>{"username":"","password":""}</t>
-  </si>
-  <si>
-    <t>password': ['该字段不能为空。']</t>
-  </si>
-  <si>
-    <t>login_4</t>
-  </si>
-  <si>
-    <t>登录成功</t>
-  </si>
-  <si>
-    <t>{"username":"python","password":"12345678"}</t>
-  </si>
-  <si>
-    <t>user_id': 1, 'username': 'python'</t>
-  </si>
-  <si>
-    <t>login_5</t>
-  </si>
-  <si>
-    <t>登录用户名或密码错误</t>
-  </si>
-  <si>
-    <t>{"username":"python","password":"test123"}</t>
-  </si>
-  <si>
-    <t>无法使用提供的认证信息登录</t>
-  </si>
-  <si>
-    <t>Info_1</t>
-  </si>
-  <si>
-    <t>个人信息</t>
-  </si>
-  <si>
-    <t>/user/</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>身份认证信息未提供</t>
-  </si>
-  <si>
-    <t>Info_2</t>
-  </si>
-  <si>
-    <t>获取个人信息正确</t>
-  </si>
-  <si>
-    <t>id': 1, 'username': 'python', 'mobile': '17701397029', 'email': '952673638@qq.com'</t>
   </si>
   <si>
     <t>{"Authorization": "JWT ${token}$"}</t>
@@ -263,10 +266,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -300,39 +303,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -346,12 +325,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian Light"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
@@ -367,16 +362,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -390,18 +392,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian Light"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
       <charset val="134"/>
-      <scheme val="major"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -411,14 +422,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -435,13 +438,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,169 +564,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,38 +746,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -797,17 +770,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thick">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -823,11 +802,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -854,145 +857,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1583,7 +1586,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L11"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1896,31 +1899,31 @@
       <c r="J8" s="9"/>
       <c r="K8" s="16"/>
       <c r="L8" s="9" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="M8" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N8" s="9"/>
       <c r="O8" s="9">
         <v>200</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" ht="71.25" spans="1:16">
       <c r="A9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
@@ -1930,7 +1933,7 @@
         <v>21</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1947,31 +1950,31 @@
     </row>
     <row r="10" ht="28.5" spans="1:16">
       <c r="A10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>32</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>21</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="16"/>
@@ -1979,7 +1982,7 @@
         <v>23</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N10" s="9"/>
       <c r="O10" s="9">
@@ -1989,31 +1992,31 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>21</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="16"/>
@@ -2021,7 +2024,7 @@
         <v>23</v>
       </c>
       <c r="M11" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N11" s="9"/>
       <c r="O11" s="9">
@@ -2070,7 +2073,7 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -2090,7 +2093,7 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -2110,7 +2113,7 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
@@ -2130,7 +2133,7 @@
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -2221,7 +2224,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="2"/>
@@ -2230,32 +2233,32 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:1">

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -125,6 +125,9 @@
     <t>user_id': 1, 'username': 'python'</t>
   </si>
   <si>
+    <t>y</t>
+  </si>
+  <si>
     <t>login_5</t>
   </si>
   <si>
@@ -159,9 +162,6 @@
   </si>
   <si>
     <t>id': 1, 'username': 'python', 'mobile': '17701397029', 'email': '952673638@qq.com'</t>
-  </si>
-  <si>
-    <t>y</t>
   </si>
   <si>
     <t>{"Authorization": "JWT ${token}$"}</t>
@@ -266,10 +266,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -310,8 +310,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -346,22 +377,6 @@
       <scheme val="major"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
@@ -369,24 +384,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -408,16 +415,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -438,187 +438,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,15 +740,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -793,11 +784,42 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -819,33 +841,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -857,10 +857,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -872,13 +872,13 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -887,115 +887,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1586,7 +1586,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1792,7 +1792,7 @@
       <c r="J5" s="9"/>
       <c r="K5" s="16"/>
       <c r="L5" s="9" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
@@ -1803,13 +1803,13 @@
     </row>
     <row r="6" ht="28.5" spans="1:16">
       <c r="A6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>19</v>
@@ -1822,10 +1822,10 @@
         <v>21</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="16"/>
@@ -1841,25 +1841,25 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="16"/>
@@ -1874,32 +1874,32 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>32</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="16"/>
       <c r="L8" s="9" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="M8" s="18" t="s">
         <v>49</v>
@@ -1927,7 +1927,7 @@
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>21</v>

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="美多商城接口测试" sheetId="2" r:id="rId1"/>
@@ -125,43 +125,43 @@
     <t>user_id': 1, 'username': 'python'</t>
   </si>
   <si>
+    <t>login_5</t>
+  </si>
+  <si>
+    <t>登录用户名或密码错误</t>
+  </si>
+  <si>
+    <t>{"username":"python","password":"test123"}</t>
+  </si>
+  <si>
+    <t>无法使用提供的认证信息登录</t>
+  </si>
+  <si>
+    <t>Info_1</t>
+  </si>
+  <si>
+    <t>个人信息</t>
+  </si>
+  <si>
+    <t>/user/</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>身份认证信息未提供</t>
+  </si>
+  <si>
+    <t>Info_2</t>
+  </si>
+  <si>
+    <t>获取个人信息正确</t>
+  </si>
+  <si>
+    <t>id': 1, 'username': 'python', 'mobile': '17701397029', 'email': '952673638@qq.com'</t>
+  </si>
+  <si>
     <t>y</t>
-  </si>
-  <si>
-    <t>login_5</t>
-  </si>
-  <si>
-    <t>登录用户名或密码错误</t>
-  </si>
-  <si>
-    <t>{"username":"python","password":"test123"}</t>
-  </si>
-  <si>
-    <t>无法使用提供的认证信息登录</t>
-  </si>
-  <si>
-    <t>Info_1</t>
-  </si>
-  <si>
-    <t>个人信息</t>
-  </si>
-  <si>
-    <t>/user/</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>身份认证信息未提供</t>
-  </si>
-  <si>
-    <t>Info_2</t>
-  </si>
-  <si>
-    <t>获取个人信息正确</t>
-  </si>
-  <si>
-    <t>id': 1, 'username': 'python', 'mobile': '17701397029', 'email': '952673638@qq.com'</t>
   </si>
   <si>
     <t>{"Authorization": "JWT ${token}$"}</t>
@@ -267,9 +267,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -303,13 +303,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -318,16 +311,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian Light"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -349,32 +371,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian Light"/>
-      <charset val="134"/>
-      <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
@@ -384,16 +384,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -416,8 +416,8 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -438,187 +438,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,6 +754,74 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -781,74 +849,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -857,10 +857,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -869,133 +869,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1586,7 +1586,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1792,7 +1792,7 @@
       <c r="J5" s="9"/>
       <c r="K5" s="16"/>
       <c r="L5" s="9" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
@@ -1803,13 +1803,13 @@
     </row>
     <row r="6" ht="28.5" spans="1:16">
       <c r="A6" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>19</v>
@@ -1822,10 +1822,10 @@
         <v>21</v>
       </c>
       <c r="H6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="18" t="s">
         <v>39</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>40</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="16"/>
@@ -1841,25 +1841,25 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="16"/>
@@ -1874,32 +1874,32 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>32</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="16"/>
       <c r="L8" s="9" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="M8" s="18" t="s">
         <v>49</v>
@@ -1927,7 +1927,7 @@
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>21</v>

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="79">
   <si>
     <t>用例ID</t>
   </si>
@@ -86,7 +86,7 @@
     <t>无效数据。期待为字典类型</t>
   </si>
   <si>
-    <t>n</t>
+    <t>y</t>
   </si>
   <si>
     <t>login_2</t>
@@ -159,9 +159,6 @@
   </si>
   <si>
     <t>id': 1, 'username': 'python', 'mobile': '17701397029', 'email': '952673638@qq.com'</t>
-  </si>
-  <si>
-    <t>y</t>
   </si>
   <si>
     <t>{"Authorization": "JWT ${token}$"}</t>
@@ -266,9 +263,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -305,6 +302,50 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian Light"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -319,7 +360,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -333,23 +382,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
-      <name val="DengXian Light"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -364,60 +407,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -438,13 +435,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,7 +507,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,7 +573,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,37 +591,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,103 +615,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,6 +737,51 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -761,23 +803,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -793,15 +838,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -810,45 +846,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -857,10 +854,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -869,16 +866,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -887,115 +884,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1586,7 +1583,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="L2" sqref="L2:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1899,31 +1896,31 @@
       <c r="J8" s="9"/>
       <c r="K8" s="16"/>
       <c r="L8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="18" t="s">
         <v>48</v>
-      </c>
-      <c r="M8" s="18" t="s">
-        <v>49</v>
       </c>
       <c r="N8" s="9"/>
       <c r="O8" s="9">
         <v>200</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" ht="71.25" spans="1:16">
       <c r="A9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>54</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
@@ -1933,7 +1930,7 @@
         <v>21</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1950,31 +1947,31 @@
     </row>
     <row r="10" ht="28.5" spans="1:16">
       <c r="A10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="D10" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>59</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>32</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>21</v>
       </c>
       <c r="H10" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>62</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="16"/>
@@ -1982,7 +1979,7 @@
         <v>23</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N10" s="9"/>
       <c r="O10" s="9">
@@ -1992,31 +1989,31 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>21</v>
       </c>
       <c r="H11" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>68</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="16"/>
@@ -2024,7 +2021,7 @@
         <v>23</v>
       </c>
       <c r="M11" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N11" s="9"/>
       <c r="O11" s="9">
@@ -2073,7 +2070,7 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -2093,7 +2090,7 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -2113,7 +2110,7 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
@@ -2133,7 +2130,7 @@
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -2224,7 +2221,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="2"/>
@@ -2233,32 +2230,32 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:1">

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="80">
   <si>
     <t>用例ID</t>
   </si>
@@ -86,7 +86,7 @@
     <t>无效数据。期待为字典类型</t>
   </si>
   <si>
-    <t>y</t>
+    <t>N</t>
   </si>
   <si>
     <t>login_2</t>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>id': 1, 'username': 'python', 'mobile': '17701397029', 'email': '952673638@qq.com'</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
   <si>
     <t>{"Authorization": "JWT ${token}$"}</t>
@@ -265,8 +268,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -302,51 +305,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian Light"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -366,9 +348,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -376,15 +357,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -398,23 +378,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
+      <name val="DengXian Light"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -435,43 +438,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,31 +576,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,91 +594,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,17 +743,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -785,21 +815,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -809,29 +824,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -854,145 +857,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1582,8 +1585,8 @@
   <sheetPr/>
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L11"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E8" sqref="$A8:$XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1896,31 +1899,31 @@
       <c r="J8" s="9"/>
       <c r="K8" s="16"/>
       <c r="L8" s="9" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="M8" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N8" s="9"/>
       <c r="O8" s="9">
         <v>200</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" ht="71.25" spans="1:16">
       <c r="A9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
@@ -1930,7 +1933,7 @@
         <v>21</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1947,31 +1950,31 @@
     </row>
     <row r="10" ht="28.5" spans="1:16">
       <c r="A10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>32</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>21</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="16"/>
@@ -1979,7 +1982,7 @@
         <v>23</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N10" s="9"/>
       <c r="O10" s="9">
@@ -1989,31 +1992,31 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>21</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="16"/>
@@ -2021,7 +2024,7 @@
         <v>23</v>
       </c>
       <c r="M11" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N11" s="9"/>
       <c r="O11" s="9">
@@ -2070,7 +2073,7 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -2090,7 +2093,7 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -2110,7 +2113,7 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
@@ -2130,7 +2133,7 @@
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -2221,7 +2224,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="2"/>
@@ -2230,32 +2233,32 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:1">

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -125,6 +125,9 @@
     <t>user_id': 1, 'username': 'python'</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t>login_5</t>
   </si>
   <si>
@@ -159,9 +162,6 @@
   </si>
   <si>
     <t>id': 1, 'username': 'python', 'mobile': '17701397029', 'email': '952673638@qq.com'</t>
-  </si>
-  <si>
-    <t>Y</t>
   </si>
   <si>
     <t>{"Authorization": "JWT ${token}$"}</t>
@@ -1585,8 +1585,8 @@
   <sheetPr/>
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E8" sqref="$A8:$XFD8"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1792,7 +1792,7 @@
       <c r="J5" s="9"/>
       <c r="K5" s="16"/>
       <c r="L5" s="9" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
@@ -1803,13 +1803,13 @@
     </row>
     <row r="6" ht="28.5" spans="1:16">
       <c r="A6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>19</v>
@@ -1822,10 +1822,10 @@
         <v>21</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="16"/>
@@ -1841,25 +1841,25 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="16"/>
@@ -1874,32 +1874,32 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>32</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="16"/>
       <c r="L8" s="9" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="M8" s="18" t="s">
         <v>49</v>
@@ -1927,7 +1927,7 @@
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>21</v>

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -122,7 +122,7 @@
     <t>{"username":"python","password":"12345678"}</t>
   </si>
   <si>
-    <t>user_id': 1, 'username': 'python'</t>
+    <t>{'user_id': 1, 'username': 'python'}</t>
   </si>
   <si>
     <t>Y</t>
@@ -1585,8 +1585,8 @@
   <sheetPr/>
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1786,7 +1786,7 @@
       <c r="H5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="9" t="s">
         <v>35</v>
       </c>
       <c r="J5" s="9"/>

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -122,7 +122,7 @@
     <t>{"username":"python","password":"12345678"}</t>
   </si>
   <si>
-    <t>{'user_id': 1, 'username': 'python'}</t>
+    <t>user_id': 1, 'username': 'python'</t>
   </si>
   <si>
     <t>Y</t>
@@ -1592,11 +1592,11 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="19.8333333333333" customWidth="1"/>
-    <col min="4" max="4" width="43.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="27.1666666666667" customWidth="1"/>
+    <col min="4" max="4" width="35.1" customWidth="1"/>
+    <col min="5" max="5" width="6.7" customWidth="1"/>
     <col min="7" max="7" width="12.1666666666667" customWidth="1"/>
     <col min="8" max="8" width="31.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="30.5" customWidth="1"/>
+    <col min="9" max="9" width="53.5" customWidth="1"/>
     <col min="10" max="11" width="8.16666666666667" customWidth="1"/>
     <col min="13" max="13" width="29" customWidth="1"/>
   </cols>
@@ -1786,7 +1786,7 @@
       <c r="H5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="18" t="s">
         <v>35</v>
       </c>
       <c r="J5" s="9"/>

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -86,58 +86,58 @@
     <t>无效数据。期待为字典类型</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>login_2</t>
+  </si>
+  <si>
+    <t>登录名为空</t>
+  </si>
+  <si>
+    <t>{"username":"","password":"12345678"}</t>
+  </si>
+  <si>
+    <t>username': ['该字段不能为空。']</t>
+  </si>
+  <si>
+    <t>login_3</t>
+  </si>
+  <si>
+    <t>登录名或密码为空</t>
+  </si>
+  <si>
+    <t>{"username":"","password":""}</t>
+  </si>
+  <si>
+    <t>password': ['该字段不能为空。']</t>
+  </si>
+  <si>
+    <t>login_4</t>
+  </si>
+  <si>
+    <t>登录成功</t>
+  </si>
+  <si>
+    <t>{"username":"python","password":"12345678"}</t>
+  </si>
+  <si>
+    <t>user_id': 1, 'username': 'python'</t>
+  </si>
+  <si>
+    <t>login_5</t>
+  </si>
+  <si>
+    <t>登录用户名或密码错误</t>
+  </si>
+  <si>
+    <t>{"username":"python","password":"test123"}</t>
+  </si>
+  <si>
+    <t>无法使用提供的认证信息登录</t>
+  </si>
+  <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>login_2</t>
-  </si>
-  <si>
-    <t>登录名为空</t>
-  </si>
-  <si>
-    <t>{"username":"","password":"12345678"}</t>
-  </si>
-  <si>
-    <t>username': ['该字段不能为空。']</t>
-  </si>
-  <si>
-    <t>login_3</t>
-  </si>
-  <si>
-    <t>登录名或密码为空</t>
-  </si>
-  <si>
-    <t>{"username":"","password":""}</t>
-  </si>
-  <si>
-    <t>password': ['该字段不能为空。']</t>
-  </si>
-  <si>
-    <t>login_4</t>
-  </si>
-  <si>
-    <t>登录成功</t>
-  </si>
-  <si>
-    <t>{"username":"python","password":"12345678"}</t>
-  </si>
-  <si>
-    <t>user_id': 1, 'username': 'python'</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>login_5</t>
-  </si>
-  <si>
-    <t>登录用户名或密码错误</t>
-  </si>
-  <si>
-    <t>{"username":"python","password":"test123"}</t>
-  </si>
-  <si>
-    <t>无法使用提供的认证信息登录</t>
   </si>
   <si>
     <t>Info_1</t>
@@ -1585,8 +1585,8 @@
   <sheetPr/>
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L2:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1792,7 +1792,7 @@
       <c r="J5" s="9"/>
       <c r="K5" s="16"/>
       <c r="L5" s="9" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
@@ -1803,13 +1803,13 @@
     </row>
     <row r="6" ht="28.5" spans="1:16">
       <c r="A6" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>19</v>
@@ -1822,15 +1822,15 @@
         <v>21</v>
       </c>
       <c r="H6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="18" t="s">
         <v>39</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>40</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="16"/>
       <c r="L6" s="9" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
@@ -1864,7 +1864,7 @@
       <c r="J7" s="9"/>
       <c r="K7" s="16"/>
       <c r="L7" s="9" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N7" s="9"/>
       <c r="O7" s="9">
@@ -1899,7 +1899,7 @@
       <c r="J8" s="9"/>
       <c r="K8" s="16"/>
       <c r="L8" s="9" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="M8" s="18" t="s">
         <v>49</v>
@@ -1939,7 +1939,7 @@
       <c r="J9" s="9"/>
       <c r="K9" s="16"/>
       <c r="L9" s="9" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
@@ -1979,7 +1979,7 @@
       <c r="J10" s="9"/>
       <c r="K10" s="16"/>
       <c r="L10" s="9" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="M10" s="18" t="s">
         <v>49</v>
@@ -2021,7 +2021,7 @@
       <c r="J11" s="9"/>
       <c r="K11" s="16"/>
       <c r="L11" s="9" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="M11" s="18" t="s">
         <v>49</v>

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -86,45 +86,48 @@
     <t>无效数据。期待为字典类型</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>login_2</t>
+  </si>
+  <si>
+    <t>登录名为空</t>
+  </si>
+  <si>
+    <t>{"username":"","password":"12345678"}</t>
+  </si>
+  <si>
+    <t>username': ['该字段不能为空。']</t>
+  </si>
+  <si>
+    <t>login_3</t>
+  </si>
+  <si>
+    <t>登录名或密码为空</t>
+  </si>
+  <si>
+    <t>{"username":"","password":""}</t>
+  </si>
+  <si>
+    <t>password': ['该字段不能为空。']</t>
+  </si>
+  <si>
+    <t>login_4</t>
+  </si>
+  <si>
+    <t>登录成功</t>
+  </si>
+  <si>
+    <t>{"username":"python","password":"12345678"}</t>
+  </si>
+  <si>
+    <t>user_id': 1, 'username': 'python'</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>login_2</t>
-  </si>
-  <si>
-    <t>登录名为空</t>
-  </si>
-  <si>
-    <t>{"username":"","password":"12345678"}</t>
-  </si>
-  <si>
-    <t>username': ['该字段不能为空。']</t>
-  </si>
-  <si>
-    <t>login_3</t>
-  </si>
-  <si>
-    <t>登录名或密码为空</t>
-  </si>
-  <si>
-    <t>{"username":"","password":""}</t>
-  </si>
-  <si>
-    <t>password': ['该字段不能为空。']</t>
-  </si>
-  <si>
-    <t>login_4</t>
-  </si>
-  <si>
-    <t>登录成功</t>
-  </si>
-  <si>
-    <t>{"username":"python","password":"12345678"}</t>
-  </si>
-  <si>
-    <t>user_id': 1, 'username': 'python'</t>
-  </si>
-  <si>
     <t>login_5</t>
   </si>
   <si>
@@ -135,9 +138,6 @@
   </si>
   <si>
     <t>无法使用提供的认证信息登录</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>Info_1</t>
@@ -1586,7 +1586,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L2:L5"/>
+      <selection activeCell="L4" sqref="L2:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1792,7 +1792,7 @@
       <c r="J5" s="9"/>
       <c r="K5" s="16"/>
       <c r="L5" s="9" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
@@ -1803,13 +1803,13 @@
     </row>
     <row r="6" ht="28.5" spans="1:16">
       <c r="A6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>19</v>
@@ -1822,15 +1822,15 @@
         <v>21</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="16"/>
       <c r="L6" s="9" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
@@ -1864,7 +1864,7 @@
       <c r="J7" s="9"/>
       <c r="K7" s="16"/>
       <c r="L7" s="9" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="N7" s="9"/>
       <c r="O7" s="9">
@@ -1899,7 +1899,7 @@
       <c r="J8" s="9"/>
       <c r="K8" s="16"/>
       <c r="L8" s="9" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M8" s="18" t="s">
         <v>49</v>
@@ -1939,7 +1939,7 @@
       <c r="J9" s="9"/>
       <c r="K9" s="16"/>
       <c r="L9" s="9" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
@@ -1979,7 +1979,7 @@
       <c r="J10" s="9"/>
       <c r="K10" s="16"/>
       <c r="L10" s="9" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="M10" s="18" t="s">
         <v>49</v>
@@ -2021,7 +2021,7 @@
       <c r="J11" s="9"/>
       <c r="K11" s="16"/>
       <c r="L11" s="9" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="M11" s="18" t="s">
         <v>49</v>

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -267,9 +267,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -303,9 +303,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -319,16 +318,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -341,8 +339,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -355,53 +376,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian Light"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -417,11 +394,34 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian Light"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -438,25 +438,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,19 +576,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,102 +594,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -595,12 +601,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,8 +746,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -757,15 +757,6 @@
       <top/>
       <bottom style="thick">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -785,16 +776,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -818,34 +820,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -857,10 +857,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -869,124 +869,124 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1585,8 +1585,8 @@
   <sheetPr/>
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L2:L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1899,7 +1899,7 @@
       <c r="J8" s="9"/>
       <c r="K8" s="16"/>
       <c r="L8" s="9" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="M8" s="18" t="s">
         <v>49</v>

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -1586,7 +1586,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1899,7 +1899,7 @@
       <c r="J8" s="9"/>
       <c r="K8" s="16"/>
       <c r="L8" s="9" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M8" s="18" t="s">
         <v>49</v>
@@ -1939,7 +1939,7 @@
       <c r="J9" s="9"/>
       <c r="K9" s="16"/>
       <c r="L9" s="9" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
@@ -1979,7 +1979,7 @@
       <c r="J10" s="9"/>
       <c r="K10" s="16"/>
       <c r="L10" s="9" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M10" s="18" t="s">
         <v>49</v>
@@ -2021,7 +2021,7 @@
       <c r="J11" s="9"/>
       <c r="K11" s="16"/>
       <c r="L11" s="9" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M11" s="18" t="s">
         <v>49</v>

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="79">
   <si>
     <t>用例ID</t>
   </si>
@@ -86,7 +86,7 @@
     <t>无效数据。期待为字典类型</t>
   </si>
   <si>
-    <t>N</t>
+    <t>Y</t>
   </si>
   <si>
     <t>login_2</t>
@@ -123,9 +123,6 @@
   </si>
   <si>
     <t>user_id': 1, 'username': 'python'</t>
-  </si>
-  <si>
-    <t>Y</t>
   </si>
   <si>
     <t>login_5</t>
@@ -1586,7 +1583,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="A5" sqref="$A5:$XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1792,7 +1789,7 @@
       <c r="J5" s="9"/>
       <c r="K5" s="16"/>
       <c r="L5" s="9" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
@@ -1803,13 +1800,13 @@
     </row>
     <row r="6" ht="28.5" spans="1:16">
       <c r="A6" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>19</v>
@@ -1822,10 +1819,10 @@
         <v>21</v>
       </c>
       <c r="H6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="18" t="s">
         <v>39</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>40</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="16"/>
@@ -1841,25 +1838,25 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="16"/>
@@ -1874,72 +1871,72 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>32</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="16"/>
       <c r="L8" s="9" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="M8" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N8" s="9"/>
       <c r="O8" s="9">
         <v>200</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" ht="71.25" spans="1:16">
       <c r="A9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>54</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>21</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="16"/>
       <c r="L9" s="9" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
@@ -1950,39 +1947,39 @@
     </row>
     <row r="10" ht="28.5" spans="1:16">
       <c r="A10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="D10" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>59</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>32</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>21</v>
       </c>
       <c r="H10" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>62</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="16"/>
       <c r="L10" s="9" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N10" s="9"/>
       <c r="O10" s="9">
@@ -1992,39 +1989,39 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>21</v>
       </c>
       <c r="H11" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>68</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="16"/>
       <c r="L11" s="9" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="M11" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N11" s="9"/>
       <c r="O11" s="9">
@@ -2073,7 +2070,7 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -2093,7 +2090,7 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -2113,7 +2110,7 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
@@ -2133,7 +2130,7 @@
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -2224,7 +2221,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="2"/>
@@ -2233,32 +2230,32 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:1">

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -262,11 +262,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -996,7 +997,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1046,6 +1047,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
@@ -1582,8 +1586,8 @@
   <sheetPr/>
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="$A5:$XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1669,7 +1673,7 @@
         <v>21</v>
       </c>
       <c r="H2" s="10"/>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="19" t="s">
         <v>22</v>
       </c>
       <c r="J2" s="9"/>
@@ -1679,7 +1683,7 @@
       </c>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
-      <c r="O2" s="9">
+      <c r="O2" s="17">
         <v>400</v>
       </c>
       <c r="P2" s="9"/>
@@ -1707,7 +1711,7 @@
       <c r="H3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="19" t="s">
         <v>27</v>
       </c>
       <c r="J3" s="9"/>
@@ -1717,7 +1721,7 @@
       </c>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
-      <c r="O3" s="9">
+      <c r="O3" s="17">
         <v>400</v>
       </c>
       <c r="P3" s="9"/>
@@ -1745,7 +1749,7 @@
       <c r="H4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="19" t="s">
         <v>31</v>
       </c>
       <c r="J4" s="9"/>
@@ -1755,7 +1759,7 @@
       </c>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
-      <c r="O4" s="9">
+      <c r="O4" s="17">
         <v>400</v>
       </c>
       <c r="P4" s="9"/>
@@ -1783,7 +1787,7 @@
       <c r="H5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="19" t="s">
         <v>35</v>
       </c>
       <c r="J5" s="9"/>
@@ -1793,7 +1797,7 @@
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
-      <c r="O5" s="9">
+      <c r="O5" s="17">
         <v>200</v>
       </c>
       <c r="P5" s="9"/>
@@ -1821,7 +1825,7 @@
       <c r="H6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="19" t="s">
         <v>39</v>
       </c>
       <c r="J6" s="9"/>
@@ -1831,7 +1835,7 @@
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
-      <c r="O6" s="9">
+      <c r="O6" s="17">
         <v>400</v>
       </c>
       <c r="P6" s="9"/>
@@ -1864,7 +1868,7 @@
         <v>23</v>
       </c>
       <c r="N7" s="9"/>
-      <c r="O7" s="9">
+      <c r="O7" s="17">
         <v>401</v>
       </c>
       <c r="P7" s="9"/>
@@ -1890,7 +1894,7 @@
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="19" t="s">
         <v>47</v>
       </c>
       <c r="J8" s="9"/>
@@ -1898,11 +1902,11 @@
       <c r="L8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="18" t="s">
+      <c r="M8" s="19" t="s">
         <v>48</v>
       </c>
       <c r="N8" s="9"/>
-      <c r="O8" s="9">
+      <c r="O8" s="17">
         <v>200</v>
       </c>
       <c r="P8" s="9" t="s">
@@ -1940,7 +1944,7 @@
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
-      <c r="O9" s="9">
+      <c r="O9" s="17">
         <v>200</v>
       </c>
       <c r="P9" s="9"/>
@@ -1978,11 +1982,11 @@
       <c r="L10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="18" t="s">
+      <c r="M10" s="19" t="s">
         <v>48</v>
       </c>
       <c r="N10" s="9"/>
-      <c r="O10" s="9">
+      <c r="O10" s="17">
         <v>201</v>
       </c>
       <c r="P10" s="9"/>
@@ -2020,11 +2024,11 @@
       <c r="L11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="18" t="s">
+      <c r="M11" s="19" t="s">
         <v>48</v>
       </c>
       <c r="N11" s="9"/>
-      <c r="O11" s="9">
+      <c r="O11" s="17">
         <v>201</v>
       </c>
       <c r="P11" s="9"/>
@@ -2138,7 +2142,7 @@
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
-      <c r="K17" s="17"/>
+      <c r="K17" s="18"/>
       <c r="L17" s="13"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
@@ -2156,7 +2160,7 @@
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
-      <c r="K18" s="17"/>
+      <c r="K18" s="18"/>
       <c r="L18" s="13"/>
     </row>
     <row r="19" spans="1:12">
@@ -2170,7 +2174,7 @@
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
-      <c r="K19" s="17"/>
+      <c r="K19" s="18"/>
       <c r="L19" s="13"/>
     </row>
     <row r="20" spans="1:12">
@@ -2184,7 +2188,7 @@
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
-      <c r="K20" s="17"/>
+      <c r="K20" s="18"/>
       <c r="L20" s="13"/>
     </row>
   </sheetData>

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -1587,7 +1587,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -98,7 +98,7 @@
     <t>{"username":"","password":"12345678"}</t>
   </si>
   <si>
-    <t>username': ['该字段不能为空。']</t>
+    <t xml:space="preserve"> 'username': ['该字段不能为空。']</t>
   </si>
   <si>
     <t>login_3</t>
@@ -110,7 +110,7 @@
     <t>{"username":"","password":""}</t>
   </si>
   <si>
-    <t>password': ['该字段不能为空。']</t>
+    <t xml:space="preserve"> 'password': ['该字段不能为空。']</t>
   </si>
   <si>
     <t>login_4</t>
@@ -134,7 +134,7 @@
     <t>{"username":"python","password":"test123"}</t>
   </si>
   <si>
-    <t>无法使用提供的认证信息登录</t>
+    <t>无法使用提供的认证信息登录。</t>
   </si>
   <si>
     <t>Info_1</t>
@@ -263,11 +263,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -301,25 +301,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -337,16 +323,61 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian Light"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -360,47 +391,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -414,11 +413,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian Light"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
       <charset val="134"/>
-      <scheme val="major"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -436,31 +436,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,91 +604,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,54 +617,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,20 +741,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -800,26 +797,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
+      <bottom style="thick">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -829,6 +811,15 @@
       <top/>
       <bottom style="thick">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -847,6 +838,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -855,10 +855,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -867,16 +867,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -885,115 +885,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1586,8 +1586,8 @@
   <sheetPr/>
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1711,7 +1711,7 @@
       <c r="H3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="9" t="s">
         <v>27</v>
       </c>
       <c r="J3" s="9"/>
@@ -1749,7 +1749,7 @@
       <c r="H4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="9" t="s">
         <v>31</v>
       </c>
       <c r="J4" s="9"/>

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -83,7 +83,7 @@
     <t>json</t>
   </si>
   <si>
-    <t>无效数据。期待为字典类型</t>
+    <t>无效数据。期待为字典类型，得到的是 str 。'</t>
   </si>
   <si>
     <t>Y</t>
@@ -98,7 +98,7 @@
     <t>{"username":"","password":"12345678"}</t>
   </si>
   <si>
-    <t xml:space="preserve"> 'username': ['该字段不能为空。']</t>
+    <t>username': ['该字段不能为空。']</t>
   </si>
   <si>
     <t>login_3</t>
@@ -110,7 +110,7 @@
     <t>{"username":"","password":""}</t>
   </si>
   <si>
-    <t xml:space="preserve"> 'password': ['该字段不能为空。']</t>
+    <t>password': ['该字段不能为空。']</t>
   </si>
   <si>
     <t>login_4</t>
@@ -134,7 +134,7 @@
     <t>{"username":"python","password":"test123"}</t>
   </si>
   <si>
-    <t>无法使用提供的认证信息登录。</t>
+    <t>non_field_errors': ['无法使用提供的认证信息登录。']</t>
   </si>
   <si>
     <t>Info_1</t>
@@ -149,7 +149,7 @@
     <t>get</t>
   </si>
   <si>
-    <t>身份认证信息未提供</t>
+    <t>detail': '身份认证信息未提供。'</t>
   </si>
   <si>
     <t>Info_2</t>
@@ -222,7 +222,7 @@
     <t>{ "address":"1","pay_method":"1" }</t>
   </si>
   <si>
-    <t>order_id</t>
+    <t>order_id': '20200822092652000000001'</t>
   </si>
   <si>
     <t>sheet名称  feature 一级标签</t>
@@ -1587,7 +1587,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1711,7 +1711,7 @@
       <c r="H3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="19" t="s">
         <v>27</v>
       </c>
       <c r="J3" s="9"/>
@@ -1749,7 +1749,7 @@
       <c r="H4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="19" t="s">
         <v>31</v>
       </c>
       <c r="J4" s="9"/>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="19" t="s">
         <v>44</v>
       </c>
       <c r="J7" s="9"/>
@@ -2016,7 +2016,7 @@
       <c r="H11" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="19" t="s">
         <v>67</v>
       </c>
       <c r="J11" s="9"/>

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="78">
   <si>
     <t>用例ID</t>
   </si>
@@ -83,7 +83,7 @@
     <t>json</t>
   </si>
   <si>
-    <t>无效数据。期待为字典类型，得到的是 str 。'</t>
+    <t>无效数据。期待为字典类型，得到的是 str 。</t>
   </si>
   <si>
     <t>Y</t>
@@ -98,7 +98,7 @@
     <t>{"username":"","password":"12345678"}</t>
   </si>
   <si>
-    <t>username': ['该字段不能为空。']</t>
+    <t>该字段不能为空。</t>
   </si>
   <si>
     <t>login_3</t>
@@ -110,9 +110,6 @@
     <t>{"username":"","password":""}</t>
   </si>
   <si>
-    <t>password': ['该字段不能为空。']</t>
-  </si>
-  <si>
     <t>login_4</t>
   </si>
   <si>
@@ -134,7 +131,7 @@
     <t>{"username":"python","password":"test123"}</t>
   </si>
   <si>
-    <t>non_field_errors': ['无法使用提供的认证信息登录。']</t>
+    <t>无法使用提供的认证信息登录。</t>
   </si>
   <si>
     <t>Info_1</t>
@@ -149,7 +146,7 @@
     <t>get</t>
   </si>
   <si>
-    <t>detail': '身份认证信息未提供。'</t>
+    <t>身份认证信息未提供。</t>
   </si>
   <si>
     <t>Info_2</t>
@@ -222,7 +219,7 @@
     <t>{ "address":"1","pay_method":"1" }</t>
   </si>
   <si>
-    <t>order_id': '20200822092652000000001'</t>
+    <t>order_id</t>
   </si>
   <si>
     <t>sheet名称  feature 一级标签</t>
@@ -263,11 +260,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -301,16 +298,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -318,6 +315,20 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -340,21 +351,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -375,6 +380,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -390,34 +410,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -436,61 +433,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,121 +607,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,6 +735,35 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -752,6 +778,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -771,13 +806,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -805,48 +844,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -855,145 +852,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1587,7 +1584,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1673,7 +1670,7 @@
         <v>21</v>
       </c>
       <c r="H2" s="10"/>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="9" t="s">
         <v>22</v>
       </c>
       <c r="J2" s="9"/>
@@ -1711,7 +1708,7 @@
       <c r="H3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="9" t="s">
         <v>27</v>
       </c>
       <c r="J3" s="9"/>
@@ -1749,8 +1746,8 @@
       <c r="H4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="19" t="s">
-        <v>31</v>
+      <c r="I4" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="16"/>
@@ -1766,13 +1763,13 @@
     </row>
     <row r="5" ht="28.5" spans="1:16">
       <c r="A5" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>19</v>
@@ -1785,10 +1782,10 @@
         <v>21</v>
       </c>
       <c r="H5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="19" t="s">
         <v>34</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>35</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="16"/>
@@ -1804,13 +1801,13 @@
     </row>
     <row r="6" ht="28.5" spans="1:16">
       <c r="A6" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>19</v>
@@ -1823,10 +1820,10 @@
         <v>21</v>
       </c>
       <c r="H6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>39</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="16"/>
@@ -1842,25 +1839,25 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
-      <c r="I7" s="19" t="s">
-        <v>44</v>
+      <c r="I7" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="16"/>
@@ -1875,27 +1872,27 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="E8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="16"/>
@@ -1903,38 +1900,38 @@
         <v>23</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N8" s="9"/>
       <c r="O8" s="17">
         <v>200</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" ht="71.25" spans="1:16">
       <c r="A9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>53</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>21</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1951,31 +1948,31 @@
     </row>
     <row r="10" ht="28.5" spans="1:16">
       <c r="A10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="D10" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="E10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>59</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>21</v>
       </c>
       <c r="H10" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>61</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="16"/>
@@ -1983,7 +1980,7 @@
         <v>23</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N10" s="9"/>
       <c r="O10" s="17">
@@ -1993,31 +1990,31 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>65</v>
-      </c>
       <c r="E11" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>21</v>
       </c>
       <c r="H11" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>67</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="16"/>
@@ -2025,7 +2022,7 @@
         <v>23</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N11" s="9"/>
       <c r="O11" s="17">
@@ -2074,7 +2071,7 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -2094,7 +2091,7 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -2114,7 +2111,7 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
@@ -2134,7 +2131,7 @@
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -2225,7 +2222,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="2"/>
@@ -2234,32 +2231,32 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:1">

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -1583,8 +1583,8 @@
   <sheetPr/>
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1757,7 +1757,7 @@
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
       <c r="O4" s="17">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P4" s="9"/>
     </row>

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="80">
   <si>
     <t>用例ID</t>
   </si>
@@ -83,7 +83,7 @@
     <t>json</t>
   </si>
   <si>
-    <t>无效数据。期待为字典类型，得到的是 str 。</t>
+    <t>non_field_errors': ['无效数据。期待为字典类型，得到的是 str 。']</t>
   </si>
   <si>
     <t>Y</t>
@@ -98,7 +98,7 @@
     <t>{"username":"","password":"12345678"}</t>
   </si>
   <si>
-    <t>该字段不能为空。</t>
+    <t>username': ['该字段不能为空。']</t>
   </si>
   <si>
     <t>login_3</t>
@@ -110,6 +110,9 @@
     <t>{"username":"","password":""}</t>
   </si>
   <si>
+    <t>password': ['该字段不能为空。'], 'username': ['该字段不能为空。']</t>
+  </si>
+  <si>
     <t>login_4</t>
   </si>
   <si>
@@ -131,7 +134,7 @@
     <t>{"username":"python","password":"test123"}</t>
   </si>
   <si>
-    <t>无法使用提供的认证信息登录。</t>
+    <t>non_field_errors': ['无法使用提供的认证信息登录。']</t>
   </si>
   <si>
     <t>Info_1</t>
@@ -146,7 +149,7 @@
     <t>get</t>
   </si>
   <si>
-    <t>身份认证信息未提供。</t>
+    <t>detail': '身份认证信息未提供。'</t>
   </si>
   <si>
     <t>Info_2</t>
@@ -181,6 +184,9 @@
  "page_size": "10",
  "ordering": "create_time"
  }</t>
+  </si>
+  <si>
+    <t>code': 200</t>
   </si>
   <si>
     <t>cart_1</t>
@@ -260,9 +266,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -298,16 +304,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -321,22 +320,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -350,6 +341,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
@@ -358,10 +357,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -370,6 +377,13 @@
       <name val="DengXian Light"/>
       <charset val="134"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -387,6 +401,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -394,29 +423,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -433,6 +439,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -445,37 +517,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,13 +589,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,115 +601,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,15 +758,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -768,25 +765,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -806,17 +794,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -840,7 +837,16 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -852,10 +858,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -867,13 +873,13 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -882,115 +888,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1584,7 +1590,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1670,7 +1676,7 @@
         <v>21</v>
       </c>
       <c r="H2" s="10"/>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="19" t="s">
         <v>22</v>
       </c>
       <c r="J2" s="9"/>
@@ -1708,7 +1714,7 @@
       <c r="H3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="19" t="s">
         <v>27</v>
       </c>
       <c r="J3" s="9"/>
@@ -1746,8 +1752,8 @@
       <c r="H4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="9" t="s">
-        <v>27</v>
+      <c r="I4" s="19" t="s">
+        <v>31</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="16"/>
@@ -1763,13 +1769,13 @@
     </row>
     <row r="5" ht="28.5" spans="1:16">
       <c r="A5" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>19</v>
@@ -1782,10 +1788,10 @@
         <v>21</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="16"/>
@@ -1801,13 +1807,13 @@
     </row>
     <row r="6" ht="28.5" spans="1:16">
       <c r="A6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>19</v>
@@ -1820,10 +1826,10 @@
         <v>21</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="9" t="s">
         <v>38</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="16"/>
@@ -1839,25 +1845,25 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
-      <c r="I7" s="9" t="s">
-        <v>43</v>
+      <c r="I7" s="19" t="s">
+        <v>44</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="16"/>
@@ -1872,27 +1878,27 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="16"/>
@@ -1900,40 +1906,42 @@
         <v>23</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N8" s="9"/>
       <c r="O8" s="17">
         <v>200</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" ht="71.25" spans="1:16">
       <c r="A9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>21</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="9"/>
+        <v>54</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>55</v>
+      </c>
       <c r="J9" s="9"/>
       <c r="K9" s="16"/>
       <c r="L9" s="9" t="s">
@@ -1948,31 +1956,31 @@
     </row>
     <row r="10" ht="28.5" spans="1:16">
       <c r="A10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>21</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="16"/>
@@ -1980,7 +1988,7 @@
         <v>23</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N10" s="9"/>
       <c r="O10" s="17">
@@ -1990,31 +1998,31 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>21</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="16"/>
@@ -2022,7 +2030,7 @@
         <v>23</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N11" s="9"/>
       <c r="O11" s="17">
@@ -2071,7 +2079,7 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -2091,7 +2099,7 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -2111,7 +2119,7 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
@@ -2131,7 +2139,7 @@
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -2222,7 +2230,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="2"/>
@@ -2231,32 +2239,32 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:1">

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="79">
   <si>
     <t>用例ID</t>
   </si>
@@ -83,7 +83,7 @@
     <t>json</t>
   </si>
   <si>
-    <t>non_field_errors': ['无效数据。期待为字典类型，得到的是 str 。']</t>
+    <t>{'non_field_errors': ['无效数据。期待为字典类型，得到的是 str 。']}</t>
   </si>
   <si>
     <t>Y</t>
@@ -98,7 +98,7 @@
     <t>{"username":"","password":"12345678"}</t>
   </si>
   <si>
-    <t>username': ['该字段不能为空。']</t>
+    <t>{'username': ['该字段不能为空。']}</t>
   </si>
   <si>
     <t>login_3</t>
@@ -110,7 +110,7 @@
     <t>{"username":"","password":""}</t>
   </si>
   <si>
-    <t>password': ['该字段不能为空。'], 'username': ['该字段不能为空。']</t>
+    <t>{'password': ['该字段不能为空。'], 'username': ['该字段不能为空。']}</t>
   </si>
   <si>
     <t>login_4</t>
@@ -122,7 +122,7 @@
     <t>{"username":"python","password":"12345678"}</t>
   </si>
   <si>
-    <t>user_id': 1, 'username': 'python'</t>
+    <t xml:space="preserve"> {'user_id': 1, 'username': 'python'}</t>
   </si>
   <si>
     <t>login_5</t>
@@ -134,7 +134,7 @@
     <t>{"username":"python","password":"test123"}</t>
   </si>
   <si>
-    <t>non_field_errors': ['无法使用提供的认证信息登录。']</t>
+    <t>{'non_field_errors': ['无法使用提供的认证信息登录。']}</t>
   </si>
   <si>
     <t>Info_1</t>
@@ -149,7 +149,7 @@
     <t>get</t>
   </si>
   <si>
-    <t>detail': '身份认证信息未提供。'</t>
+    <t>{'detail': '身份认证信息未提供。'}</t>
   </si>
   <si>
     <t>Info_2</t>
@@ -158,7 +158,7 @@
     <t>获取个人信息正确</t>
   </si>
   <si>
-    <t>id': 1, 'username': 'python', 'mobile': '17701397029', 'email': '952673638@qq.com'</t>
+    <t>{'id': 1, 'username': 'python', 'mobile': '17701397029', 'email': '952673638@qq.com'}</t>
   </si>
   <si>
     <t>{"Authorization": "JWT ${token}$"}</t>
@@ -186,7 +186,7 @@
  }</t>
   </si>
   <si>
-    <t>code': 200</t>
+    <t>{'code': 200}</t>
   </si>
   <si>
     <t>cart_1</t>
@@ -207,7 +207,7 @@
     <t>{"sku_id": "3","count": "1", "selected": "true"}</t>
   </si>
   <si>
-    <t>sku_id': 3, 'count': 1</t>
+    <t>{sku_id': 3, 'count': 1}</t>
   </si>
   <si>
     <t>order_1</t>
@@ -223,9 +223,6 @@
   </si>
   <si>
     <t>{ "address":"1","pay_method":"1" }</t>
-  </si>
-  <si>
-    <t>order_id</t>
   </si>
   <si>
     <t>sheet名称  feature 一级标签</t>
@@ -1589,8 +1586,8 @@
   <sheetPr/>
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1600,8 +1597,9 @@
     <col min="5" max="5" width="6.7" customWidth="1"/>
     <col min="7" max="7" width="12.1666666666667" customWidth="1"/>
     <col min="8" max="8" width="31.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="53.5" customWidth="1"/>
-    <col min="10" max="11" width="8.16666666666667" customWidth="1"/>
+    <col min="9" max="9" width="75.25" customWidth="1"/>
+    <col min="10" max="10" width="42.625" customWidth="1"/>
+    <col min="11" max="11" width="8.16666666666667" customWidth="1"/>
     <col min="13" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1676,7 +1674,7 @@
         <v>21</v>
       </c>
       <c r="H2" s="10"/>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="9" t="s">
         <v>22</v>
       </c>
       <c r="J2" s="9"/>
@@ -1714,7 +1712,7 @@
       <c r="H3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="9" t="s">
         <v>27</v>
       </c>
       <c r="J3" s="9"/>
@@ -1752,7 +1750,7 @@
       <c r="H4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="9" t="s">
         <v>31</v>
       </c>
       <c r="J4" s="9"/>
@@ -1790,7 +1788,7 @@
       <c r="H5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="9" t="s">
         <v>35</v>
       </c>
       <c r="J5" s="9"/>
@@ -1828,7 +1826,7 @@
       <c r="H6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="9" t="s">
         <v>39</v>
       </c>
       <c r="J6" s="9"/>
@@ -1862,7 +1860,7 @@
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="9" t="s">
         <v>44</v>
       </c>
       <c r="J7" s="9"/>
@@ -1897,7 +1895,7 @@
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="9" t="s">
         <v>47</v>
       </c>
       <c r="J8" s="9"/>
@@ -1939,7 +1937,7 @@
       <c r="H9" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="9" t="s">
         <v>55</v>
       </c>
       <c r="J9" s="9"/>
@@ -2021,9 +2019,7 @@
       <c r="H11" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="I11" s="9" t="s">
-        <v>68</v>
-      </c>
+      <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="16"/>
       <c r="L11" s="9" t="s">
@@ -2079,7 +2075,7 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -2099,7 +2095,7 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -2119,7 +2115,7 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
@@ -2139,7 +2135,7 @@
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -2230,7 +2226,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="2"/>
@@ -2239,32 +2235,32 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:1">

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -1587,7 +1587,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="80">
   <si>
     <t>用例ID</t>
   </si>
@@ -110,7 +110,7 @@
     <t>{"username":"","password":""}</t>
   </si>
   <si>
-    <t>{'password': ['该字段不能为空。'], 'username': ['该字段不能为空。']}</t>
+    <t>{'password': ['该字段不能为空。']}</t>
   </si>
   <si>
     <t>login_4</t>
@@ -186,7 +186,7 @@
  }</t>
   </si>
   <si>
-    <t>{'code': 200}</t>
+    <t>{}</t>
   </si>
   <si>
     <t>cart_1</t>
@@ -207,7 +207,7 @@
     <t>{"sku_id": "3","count": "1", "selected": "true"}</t>
   </si>
   <si>
-    <t>{sku_id': 3, 'count': 1}</t>
+    <t>{'sku_id': 3, 'count': 1}</t>
   </si>
   <si>
     <t>order_1</t>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t>{ "address":"1","pay_method":"1" }</t>
+  </si>
+  <si>
+    <t>{'order_id':''}</t>
   </si>
   <si>
     <t>sheet名称  feature 一级标签</t>
@@ -262,12 +265,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -301,38 +303,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -354,30 +326,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian Light"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -392,14 +357,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -413,6 +386,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian Light"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -420,6 +414,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -436,103 +438,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,79 +618,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,26 +740,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -787,15 +769,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -833,6 +806,35 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thick">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -855,10 +857,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -867,16 +869,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -885,115 +887,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1049,7 +1051,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
@@ -1586,8 +1588,8 @@
   <sheetPr/>
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1761,7 +1763,7 @@
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
       <c r="O4" s="17">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="P4" s="9"/>
     </row>
@@ -2019,7 +2021,9 @@
       <c r="H11" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="I11" s="9"/>
+      <c r="I11" s="9" t="s">
+        <v>68</v>
+      </c>
       <c r="J11" s="9"/>
       <c r="K11" s="16"/>
       <c r="L11" s="9" t="s">
@@ -2049,7 +2053,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
+      <c r="O12" s="17"/>
       <c r="P12" s="9"/>
     </row>
     <row r="13" spans="1:16">
@@ -2067,7 +2071,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
+      <c r="O13" s="17"/>
       <c r="P13" s="9"/>
     </row>
     <row r="14" spans="1:16">
@@ -2075,7 +2079,7 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -2087,7 +2091,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
+      <c r="O14" s="17"/>
       <c r="P14" s="9"/>
     </row>
     <row r="15" spans="1:16">
@@ -2095,7 +2099,7 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -2107,7 +2111,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
+      <c r="O15" s="17"/>
       <c r="P15" s="9"/>
     </row>
     <row r="16" spans="1:16">
@@ -2115,7 +2119,7 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
@@ -2127,7 +2131,7 @@
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
+      <c r="O16" s="17"/>
       <c r="P16" s="9"/>
     </row>
     <row r="17" spans="1:16">
@@ -2135,7 +2139,7 @@
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -2226,7 +2230,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="2"/>
@@ -2235,32 +2239,32 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:1">

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="81">
   <si>
     <t>用例ID</t>
   </si>
@@ -86,79 +86,82 @@
     <t>{'non_field_errors': ['无效数据。期待为字典类型，得到的是 str 。']}</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>login_2</t>
+  </si>
+  <si>
+    <t>登录名为空</t>
+  </si>
+  <si>
+    <t>{"username":"","password":"12345678"}</t>
+  </si>
+  <si>
+    <t>{'username': ['该字段不能为空。']}</t>
+  </si>
+  <si>
+    <t>login_3</t>
+  </si>
+  <si>
+    <t>登录名或密码为空</t>
+  </si>
+  <si>
+    <t>{"username":"","password":""}</t>
+  </si>
+  <si>
+    <t>{'password': ['该字段不能为空。']}</t>
+  </si>
+  <si>
+    <t>login_4</t>
+  </si>
+  <si>
+    <t>登录成功</t>
+  </si>
+  <si>
+    <t>{"username":"python","password":"12345678"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {'user_id': 1, 'username': 'python'}</t>
+  </si>
+  <si>
+    <t>login_5</t>
+  </si>
+  <si>
+    <t>登录用户名或密码错误</t>
+  </si>
+  <si>
+    <t>{"username":"python","password":"test123"}</t>
+  </si>
+  <si>
+    <t>{'non_field_errors': ['无法使用提供的认证信息登录。']}</t>
+  </si>
+  <si>
+    <t>Info_1</t>
+  </si>
+  <si>
+    <t>个人信息</t>
+  </si>
+  <si>
+    <t>/user/</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>{'detail': '身份认证信息未提供。'}</t>
+  </si>
+  <si>
+    <t>Info_2</t>
+  </si>
+  <si>
+    <t>获取个人信息正确</t>
+  </si>
+  <si>
+    <t>{'id': 1, 'username': 'python', 'mobile': '17701397029', 'email': '952673638@qq.com'}</t>
+  </si>
+  <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>login_2</t>
-  </si>
-  <si>
-    <t>登录名为空</t>
-  </si>
-  <si>
-    <t>{"username":"","password":"12345678"}</t>
-  </si>
-  <si>
-    <t>{'username': ['该字段不能为空。']}</t>
-  </si>
-  <si>
-    <t>login_3</t>
-  </si>
-  <si>
-    <t>登录名或密码为空</t>
-  </si>
-  <si>
-    <t>{"username":"","password":""}</t>
-  </si>
-  <si>
-    <t>{'password': ['该字段不能为空。']}</t>
-  </si>
-  <si>
-    <t>login_4</t>
-  </si>
-  <si>
-    <t>登录成功</t>
-  </si>
-  <si>
-    <t>{"username":"python","password":"12345678"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> {'user_id': 1, 'username': 'python'}</t>
-  </si>
-  <si>
-    <t>login_5</t>
-  </si>
-  <si>
-    <t>登录用户名或密码错误</t>
-  </si>
-  <si>
-    <t>{"username":"python","password":"test123"}</t>
-  </si>
-  <si>
-    <t>{'non_field_errors': ['无法使用提供的认证信息登录。']}</t>
-  </si>
-  <si>
-    <t>Info_1</t>
-  </si>
-  <si>
-    <t>个人信息</t>
-  </si>
-  <si>
-    <t>/user/</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>{'detail': '身份认证信息未提供。'}</t>
-  </si>
-  <si>
-    <t>Info_2</t>
-  </si>
-  <si>
-    <t>获取个人信息正确</t>
-  </si>
-  <si>
-    <t>{'id': 1, 'username': 'python', 'mobile': '17701397029', 'email': '952673638@qq.com'}</t>
   </si>
   <si>
     <t>{"Authorization": "JWT ${token}$"}</t>
@@ -266,10 +269,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -312,29 +315,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -350,7 +331,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -364,7 +375,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -378,9 +389,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -394,13 +412,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -408,20 +419,12 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -438,187 +441,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,16 +746,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -773,50 +776,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -841,6 +805,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -849,6 +828,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -857,145 +860,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1589,7 +1592,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1603,6 +1606,7 @@
     <col min="10" max="10" width="42.625" customWidth="1"/>
     <col min="11" max="11" width="8.16666666666667" customWidth="1"/>
     <col min="13" max="13" width="29" customWidth="1"/>
+    <col min="16" max="16" width="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1903,31 +1907,31 @@
       <c r="J8" s="9"/>
       <c r="K8" s="16"/>
       <c r="L8" s="9" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N8" s="9"/>
       <c r="O8" s="17">
         <v>200</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" ht="71.25" spans="1:16">
       <c r="A9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
@@ -1937,10 +1941,10 @@
         <v>21</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="16"/>
@@ -1956,31 +1960,31 @@
     </row>
     <row r="10" ht="28.5" spans="1:16">
       <c r="A10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>32</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>21</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="16"/>
@@ -1988,7 +1992,7 @@
         <v>23</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N10" s="9"/>
       <c r="O10" s="17">
@@ -1998,31 +2002,31 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>21</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="16"/>
@@ -2030,7 +2034,7 @@
         <v>23</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N11" s="9"/>
       <c r="O11" s="17">
@@ -2079,7 +2083,7 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -2099,7 +2103,7 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -2119,7 +2123,7 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
@@ -2139,7 +2143,7 @@
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -2230,7 +2234,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="2"/>
@@ -2239,32 +2243,32 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:1">

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -1591,8 +1591,8 @@
   <sheetPr/>
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="美多商城接口测试" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="80">
   <si>
     <t>用例ID</t>
   </si>
@@ -86,7 +86,7 @@
     <t>{'non_field_errors': ['无效数据。期待为字典类型，得到的是 str 。']}</t>
   </si>
   <si>
-    <t>N</t>
+    <t>Y</t>
   </si>
   <si>
     <t>login_2</t>
@@ -159,9 +159,6 @@
   </si>
   <si>
     <t>{'id': 1, 'username': 'python', 'mobile': '17701397029', 'email': '952673638@qq.com'}</t>
-  </si>
-  <si>
-    <t>Y</t>
   </si>
   <si>
     <t>{"Authorization": "JWT ${token}$"}</t>
@@ -269,10 +266,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -306,6 +303,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="DengXian"/>
@@ -313,9 +332,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -331,7 +356,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -345,15 +370,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian Light"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -367,64 +401,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian Light"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -441,31 +438,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,84 +600,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -567,18 +612,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -586,42 +619,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,17 +743,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -772,6 +763,69 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -795,63 +849,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -860,149 +857,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1052,6 +1049,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -1591,8 +1591,8 @@
   <sheetPr/>
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1685,12 +1685,12 @@
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="16"/>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="17" t="s">
         <v>23</v>
       </c>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
-      <c r="O2" s="17">
+      <c r="O2" s="18">
         <v>400</v>
       </c>
       <c r="P2" s="9"/>
@@ -1723,12 +1723,12 @@
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="16"/>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="17" t="s">
         <v>23</v>
       </c>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
-      <c r="O3" s="17">
+      <c r="O3" s="18">
         <v>400</v>
       </c>
       <c r="P3" s="9"/>
@@ -1761,12 +1761,12 @@
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="16"/>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="17" t="s">
         <v>23</v>
       </c>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
-      <c r="O4" s="17">
+      <c r="O4" s="18">
         <v>400</v>
       </c>
       <c r="P4" s="9"/>
@@ -1799,12 +1799,12 @@
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="16"/>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="17" t="s">
         <v>23</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
-      <c r="O5" s="17">
+      <c r="O5" s="18">
         <v>200</v>
       </c>
       <c r="P5" s="9"/>
@@ -1837,12 +1837,12 @@
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="16"/>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="17" t="s">
         <v>23</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
-      <c r="O6" s="17">
+      <c r="O6" s="18">
         <v>400</v>
       </c>
       <c r="P6" s="9"/>
@@ -1871,11 +1871,11 @@
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="16"/>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="17" t="s">
         <v>23</v>
       </c>
       <c r="N7" s="9"/>
-      <c r="O7" s="17">
+      <c r="O7" s="18">
         <v>401</v>
       </c>
       <c r="P7" s="9"/>
@@ -1906,32 +1906,32 @@
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="16"/>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="M8" s="19" t="s">
+      <c r="N8" s="9"/>
+      <c r="O8" s="18">
+        <v>200</v>
+      </c>
+      <c r="P8" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="N8" s="9"/>
-      <c r="O8" s="17">
-        <v>200</v>
-      </c>
-      <c r="P8" s="9" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" ht="71.25" spans="1:16">
       <c r="A9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>54</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
@@ -1941,103 +1941,103 @@
         <v>21</v>
       </c>
       <c r="H9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>56</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="16"/>
-      <c r="L9" s="9" t="s">
+      <c r="L9" s="17" t="s">
         <v>23</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
-      <c r="O9" s="17">
+      <c r="O9" s="18">
         <v>200</v>
       </c>
       <c r="P9" s="9"/>
     </row>
     <row r="10" ht="28.5" spans="1:16">
       <c r="A10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="D10" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>60</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>32</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>21</v>
       </c>
       <c r="H10" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="16"/>
-      <c r="L10" s="9" t="s">
+      <c r="L10" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="19" t="s">
-        <v>49</v>
+      <c r="M10" s="20" t="s">
+        <v>48</v>
       </c>
       <c r="N10" s="9"/>
-      <c r="O10" s="17">
+      <c r="O10" s="18">
         <v>201</v>
       </c>
       <c r="P10" s="9"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>67</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>21</v>
       </c>
       <c r="H11" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>69</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="16"/>
-      <c r="L11" s="9" t="s">
+      <c r="L11" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="19" t="s">
-        <v>49</v>
+      <c r="M11" s="20" t="s">
+        <v>48</v>
       </c>
       <c r="N11" s="9"/>
-      <c r="O11" s="17">
+      <c r="O11" s="18">
         <v>201</v>
       </c>
       <c r="P11" s="9"/>
@@ -2057,7 +2057,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
-      <c r="O12" s="17"/>
+      <c r="O12" s="18"/>
       <c r="P12" s="9"/>
     </row>
     <row r="13" spans="1:16">
@@ -2075,7 +2075,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
-      <c r="O13" s="17"/>
+      <c r="O13" s="18"/>
       <c r="P13" s="9"/>
     </row>
     <row r="14" spans="1:16">
@@ -2083,7 +2083,7 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -2095,7 +2095,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
-      <c r="O14" s="17"/>
+      <c r="O14" s="18"/>
       <c r="P14" s="9"/>
     </row>
     <row r="15" spans="1:16">
@@ -2103,7 +2103,7 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -2115,7 +2115,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
-      <c r="O15" s="17"/>
+      <c r="O15" s="18"/>
       <c r="P15" s="9"/>
     </row>
     <row r="16" spans="1:16">
@@ -2123,7 +2123,7 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
@@ -2135,7 +2135,7 @@
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
-      <c r="O16" s="17"/>
+      <c r="O16" s="18"/>
       <c r="P16" s="9"/>
     </row>
     <row r="17" spans="1:16">
@@ -2143,7 +2143,7 @@
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -2151,7 +2151,7 @@
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
-      <c r="K17" s="18"/>
+      <c r="K17" s="19"/>
       <c r="L17" s="13"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
@@ -2169,7 +2169,7 @@
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
-      <c r="K18" s="18"/>
+      <c r="K18" s="19"/>
       <c r="L18" s="13"/>
     </row>
     <row r="19" spans="1:12">
@@ -2183,7 +2183,7 @@
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
-      <c r="K19" s="18"/>
+      <c r="K19" s="19"/>
       <c r="L19" s="13"/>
     </row>
     <row r="20" spans="1:12">
@@ -2197,7 +2197,7 @@
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
-      <c r="K20" s="18"/>
+      <c r="K20" s="19"/>
       <c r="L20" s="13"/>
     </row>
   </sheetData>
@@ -2234,7 +2234,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="2"/>
@@ -2243,32 +2243,32 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:1">
